--- a/output/fit_clients/fit_round_2.xlsx
+++ b/output/fit_clients/fit_round_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,39 +480,21 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8803118746.521696</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004839659324419293</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.046407589978748</v>
-      </c>
-      <c r="N2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4435329774.258297</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004751287802186871</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9943219453325104</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.972892038358002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.040599621760823</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.972892038358002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4086723295.638329</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002519104302869223</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.026736520154486</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -648,39 +564,21 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3467500031.471776</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004713416625785589</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.9653211870566095</v>
-      </c>
-      <c r="N5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,39 +592,21 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7260627206.612446</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.00253363980935951</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.012739457134268</v>
-      </c>
-      <c r="N6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>9203803268.000704</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001349490290473637</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.021759580910498</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5106073062.616389</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002772276089709017</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.016758280293724</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5818878045.2115</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003396683364966993</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.900845478296092</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.866598336973907</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.907477052329166</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.866598336973907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -878,39 +704,21 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3152230831.838174</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.003536687579947205</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.041524653442531</v>
-      </c>
-      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3231353703.029135</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001148188699612178</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7321570869502761</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.943680112660898</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.6717860136840214</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-3.943680112660898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>5904418172.187714</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.002033416574352219</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.063800597225204</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4518169507.753107</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003384563019387595</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.3163446821637164</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.966906451355446</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.3464481745913619</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.966906451355446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1062,39 +816,21 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7243721857.866063</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002448205262971712</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9810355325318356</v>
-      </c>
-      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5574327461.946618</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005387811270146419</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.062841786217211</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1154,39 +872,21 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5502981342.354109</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.00398350060873779</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9975246794575923</v>
-      </c>
-      <c r="N16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>7012702227.684412</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002366698872901319</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.917781364409687</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.047940089809591</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.917781364409687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5977847489.786854</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008109302031173078</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.9739943882626113</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.950737833969728</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.011390406437046</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-3.950737833969728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4400900459.307443</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002077493916984349</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.9903132982727629</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.004659999778283</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.031505733488092</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-4.004659999778283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,39 +984,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5009495053.795316</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001213875388663176</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.9098645721686299</v>
-      </c>
-      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1384,39 +1012,21 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>8382908218.404679</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004447088714047095</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.9726861421196188</v>
-      </c>
-      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1430,39 +1040,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4847696455.87384</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.0037753458811209</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9265199736634092</v>
-      </c>
-      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1476,39 +1068,21 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8160340626.1593</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001522039951790679</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.9985462103750039</v>
-      </c>
-      <c r="N23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1522,39 +1096,21 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5552692839.035452</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003265206289368066</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.069535412887557</v>
-      </c>
-      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1568,39 +1124,21 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6435241891.087522</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003206140374466322</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.011732257027176</v>
-      </c>
-      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1614,39 +1152,21 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4751487518.79181</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001054003847610845</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.947196482265492</v>
-      </c>
-      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1660,39 +1180,21 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7379772048.133147</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003923286679617211</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.029711137261743</v>
-      </c>
-      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1706,39 +1208,21 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8973298331.783199</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005731927810982688</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9975246794575923</v>
-      </c>
-      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1752,39 +1236,21 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7673282626.650855</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001355753800908099</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.058997861197157</v>
-      </c>
-      <c r="N29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7671760866.769263</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003017676991286552</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9924012522616169</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1844,39 +1292,21 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7591724059.605666</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.0027129207393018</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.063800597225204</v>
-      </c>
-      <c r="N31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,39 +1320,21 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4564606755.527602</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001099371931416421</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.025743064169402</v>
-      </c>
-      <c r="N32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1936,39 +1348,21 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5713630567.483129</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002060971397083596</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.9320056342285659</v>
-      </c>
-      <c r="N33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1982,39 +1376,21 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6179957272.219796</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004375626400400428</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8662388301443477</v>
-      </c>
-      <c r="N34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>4621490681.102074</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002391934393428426</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.018761746828212</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5484484719.112884</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003029066181821496</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.228466532447225</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.99515743585274</v>
-      </c>
-      <c r="M36" t="n">
-        <v>-0.276857585831097</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.99515743585274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2120,39 +1460,21 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4541915632.063421</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005256035655944085</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.106087192035791</v>
-      </c>
-      <c r="N37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2166,39 +1488,21 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4086910946.045592</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003424362474757485</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.003638268944956</v>
-      </c>
-      <c r="N38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2212,39 +1516,21 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4664725349.968931</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.00208676927880252</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9514921799601719</v>
-      </c>
-      <c r="N39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2258,39 +1544,21 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5834173238.079051</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004222256439314727</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.071440196966296</v>
-      </c>
-      <c r="N40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2304,39 +1572,21 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6689249918.31219</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001510417569629402</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.005667873179534</v>
-      </c>
-      <c r="N41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>4288838110.751987</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.00433328096122722</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.08224410017153318</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.896335431047077</v>
-      </c>
-      <c r="M42" t="n">
-        <v>-0.5961236699972838</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.896335431047077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6248181209.051533</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004902562017763123</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.9866370386003883</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.118198651169706</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.030195191803605</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-4.118198651169706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5248887696.560913</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001868635014367484</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.118708131604727</v>
-      </c>
-      <c r="M44" t="n">
-        <v>-0.7071067811865476</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-4.118708131604727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2488,39 +1684,21 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5585875704.765189</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.00150115347553045</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.043480570007512</v>
-      </c>
-      <c r="N45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2534,39 +1712,21 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>11351855351.93121</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004487681516354153</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9341908790436835</v>
-      </c>
-      <c r="N46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2580,39 +1740,21 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6329598593.159447</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003234637837366201</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.99342805155569</v>
-      </c>
-      <c r="N47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2626,39 +1768,21 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6944311550.278543</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002727332181095647</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.015755065170015</v>
-      </c>
-      <c r="N48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>3975953300.523289</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004699523250984348</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.9279604332112589</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>4.130670168440994</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.947831343208997</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-4.130670168440994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7913582145.860525</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003504622495166773</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.067627230434826</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2764,39 +1852,21 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4508768398.114159</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004923214538042378</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.056105736012368</v>
-      </c>
-      <c r="N51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2810,39 +1880,21 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8388214116.423744</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001591040865249122</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.9514921799601719</v>
-      </c>
-      <c r="N52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2856,39 +1908,21 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5858981629.559489</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003357402095731869</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.013745656545034</v>
-      </c>
-      <c r="N53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2902,39 +1936,21 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6547571721.293122</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004945327004768842</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.9642644585657362</v>
-      </c>
-      <c r="N54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7431181136.278327</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003866065415177122</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.010724053232134</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2994,39 +1992,21 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>6330598555.072906</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.00188120000550266</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.002621926133435</v>
-      </c>
-      <c r="N56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3040,39 +2020,21 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8293203414.626956</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004230504167583059</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.9320056342285659</v>
-      </c>
-      <c r="N57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5358979635.943456</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.00185779620038506</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.8224321106411361</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3.850442940816521</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7990311983099849</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-3.850442940816521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7421830906.967445</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.002941578096079998</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.9710317649145219</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.960878596569092</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9830285951456443</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.960878596569092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3178,39 +2104,21 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4243615025.275747</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002706101701704253</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.9417993073790061</v>
-      </c>
-      <c r="N60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5134771558.17319</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004245408919815822</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.0398715965457615</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.670413520188169</v>
-      </c>
-      <c r="M61" t="n">
-        <v>-0.6566088356368848</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.670413520188169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3270,39 +2160,21 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5357848442.29593</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003887890879008993</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9737337311600419</v>
-      </c>
-      <c r="N62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3316,39 +2188,21 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7849743534.283344</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004941539692523218</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1.02275690626351</v>
-      </c>
-      <c r="N63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3362,39 +2216,21 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4233805583.656522</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003363579593098674</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9799957489513477</v>
-      </c>
-      <c r="N64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3408,39 +2244,21 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5221827745.243057</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004997577931168259</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.094970455700933</v>
-      </c>
-      <c r="N65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4747226266.612773</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003567982878519892</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.9713821163138354</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>4.03484952658491</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.000245044930149</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-4.03484952658491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3500,39 +2300,21 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6581664652.645607</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004636171889975651</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9642644585657362</v>
-      </c>
-      <c r="N67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3546,39 +2328,21 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>5869936565.006532</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002245764467781191</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.863881713312204</v>
-      </c>
-      <c r="N68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4931778680.21157</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001027569177768965</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.045432827224122</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3638,39 +2384,21 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5103135670.224635</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002686860939749645</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9716374236021572</v>
-      </c>
-      <c r="N70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,39 +2412,21 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3951418177.885908</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003334739521490564</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.894039633296686</v>
-      </c>
-      <c r="N71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3730,39 +2440,21 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7547229302.646562</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002481980383524477</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.133402099964925</v>
-      </c>
-      <c r="N72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6936396749.336065</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001342929170016743</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.006618143222785558</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.979931369503172</v>
-      </c>
-      <c r="M73" t="n">
-        <v>-0.6993645072673725</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.979931369503172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3822,39 +2496,21 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6482087877.283946</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.005082918163067582</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9716374236021572</v>
-      </c>
-      <c r="N74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6137587452.373956</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.00377786714401623</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.9054434388590608</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>4.081660986491035</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.9080599089210768</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-4.081660986491035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3914,39 +2552,21 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6216463276.505292</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002066761409037398</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>1.029711137261743</v>
-      </c>
-      <c r="N76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7568451545.046487</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005002727402686248</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.050297594434248</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7747156621.595398</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.00369082510146672</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.9847747727505951</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.035213509661564</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.036265314492588</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-4.035213509661564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -4052,39 +2636,21 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6618223162.475403</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001911381926986166</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1.026736520154486</v>
-      </c>
-      <c r="N79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7017556916.550801</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002636379188985664</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.1278744727859813</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>4.295775019147691</v>
-      </c>
-      <c r="M80" t="n">
-        <v>-0.5233639334895138</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-4.295775019147691</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -4144,39 +2692,21 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6553893321.445277</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004403798590869868</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.034649828124191</v>
-      </c>
-      <c r="N81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4190,39 +2720,21 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5749177301.403721</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004943512134429712</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.001604552024505</v>
-      </c>
-      <c r="N82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4236,39 +2748,21 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10054307751.63622</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003386024014011991</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.9674311812397823</v>
-      </c>
-      <c r="N83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,39 +2776,21 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6985557917.555168</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.00371814936467486</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>1.058034697868101</v>
-      </c>
-      <c r="N84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4328,39 +2804,21 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4796418877.420523</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.00285191149131206</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>1.024748645065864</v>
-      </c>
-      <c r="N85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8580148717.439872</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002558340948022958</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1.081856564002631</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -4420,39 +2860,21 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4878029661.419536</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001201494082003254</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0</v>
-      </c>
-      <c r="M87" t="n">
-        <v>1.092173591731636</v>
-      </c>
-      <c r="N87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4466,39 +2888,21 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>9251468250.211395</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004267229094315373</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.947196482265492</v>
-      </c>
-      <c r="N88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4512,39 +2916,21 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7543186139.180196</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003992957760372114</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" t="n">
-        <v>1.033663977659137</v>
-      </c>
-      <c r="N89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4558,39 +2944,21 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6742438791.137482</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002844002935978457</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0</v>
-      </c>
-      <c r="M90" t="n">
-        <v>1.031689450588447</v>
-      </c>
-      <c r="N90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7357392278.265984</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.00469262246118633</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8963174449713067</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -4650,39 +3000,21 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3462409816.563784</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003511922068939307</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.118005591238543</v>
-      </c>
-      <c r="N92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4696,39 +3028,21 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7568110636.701041</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001304028401139135</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="n">
-        <v>1.023753260037308</v>
-      </c>
-      <c r="N93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5490297668.282167</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001396403775951986</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.079025709004957</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -4788,39 +3084,21 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5215609990.131577</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002778971468726737</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.001604552024505</v>
-      </c>
-      <c r="N95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9501153538.335783</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003270603374955281</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" t="n">
-        <v>1.04250307042996</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5162519184.159662</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004854119024067157</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9851836928204099</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8745235457.543665</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004291522734879343</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.9589633493604047</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -4972,39 +3196,21 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3463268482.198657</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004580905386986951</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.010724053232134</v>
-      </c>
-      <c r="N99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5018,39 +3224,21 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4594093504.790005</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.00314200558854406</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.9232129316768242</v>
-      </c>
-      <c r="N100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5064,39 +3252,21 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5471146043.852593</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001246290272402054</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6481356699871023</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.9954784728322122</v>
-      </c>
-      <c r="N101" t="n">
         <v>0</v>
       </c>
     </row>

--- a/output/fit_clients/fit_round_2.xlsx
+++ b/output/fit_clients/fit_round_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8803118746.521696</v>
+        <v>2309830044.346886</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004839659324419293</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
+        <v>0.08474492265423803</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03717308622456395</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1154915022.174211</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4435329774.258297</v>
+        <v>2213290132.019603</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004751287802186871</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+        <v>0.1743245801871256</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04143359587705799</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1106645065.978162</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4086723295.638329</v>
+        <v>4144998587.086014</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002519104302869223</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+        <v>0.1120306087520058</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02893236099771158</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2072499293.430887</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3467500031.471776</v>
+        <v>3016156094.757416</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004713416625785589</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.068297249385416</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03220148892678306</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1508078047.290926</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7260627206.612446</v>
+        <v>1845740591.996676</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00253363980935951</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
+        <v>0.09485447306089882</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05643381699688387</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>922870295.9031266</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>9203803268.000704</v>
+        <v>2349503950.152712</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001349490290473637</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
+        <v>0.08491254113853333</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03486650911126576</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1174751975.068279</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5106073062.616389</v>
+        <v>3305431802.96962</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002772276089709017</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
+        <v>0.1575033478193062</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03286115317622185</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1652715901.449278</v>
       </c>
     </row>
     <row r="9">
@@ -679,19 +731,25 @@
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5818878045.2115</v>
+        <v>1862383713.787923</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003396683364966993</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
+        <v>0.1319918657117221</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02753548373721767</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>931191856.8397588</v>
       </c>
     </row>
     <row r="10">
@@ -707,19 +765,25 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3152230831.838174</v>
+        <v>4576935028.789131</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003536687579947205</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1956685378333282</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04973250343983975</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2288467514.394566</v>
       </c>
     </row>
     <row r="11">
@@ -735,19 +799,25 @@
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3231353703.029135</v>
+        <v>4043008219.55797</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001148188699612178</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1264518223748225</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04081618259423875</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2021504109.661318</v>
       </c>
     </row>
     <row r="12">
@@ -763,19 +833,25 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>5904418172.187714</v>
+        <v>3275556985.995685</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002033416574352219</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
+        <v>0.1281671104124526</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04091029630880703</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1637778492.997843</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4518169507.753107</v>
+        <v>4076372458.397915</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003384563019387595</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+        <v>0.0642502692289976</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02869756221573658</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2038186229.204831</v>
       </c>
     </row>
     <row r="14">
@@ -819,19 +901,25 @@
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7243721857.866063</v>
+        <v>2941972604.288299</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002448205262971712</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
+        <v>0.1367383202191138</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04262660011154101</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1470986302.119318</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5574327461.946618</v>
+        <v>1788270256.151218</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005387811270146419</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
+        <v>0.07936879799857535</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03915824824084043</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>894135128.1016316</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +969,25 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5502981342.354109</v>
+        <v>2104705336.723728</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00398350060873779</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
+        <v>0.1074120319264685</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03181156674039157</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1052352668.299828</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>7012702227.684412</v>
+        <v>4315172447.073249</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002366698872901319</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
+        <v>0.1348757017377578</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03536450479349766</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2157586223.420413</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5977847489.786854</v>
+        <v>3177158555.318437</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008109302031173078</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
+        <v>0.1640276819819117</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02855537651170062</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1588579277.674508</v>
       </c>
     </row>
     <row r="19">
@@ -959,19 +1071,25 @@
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4400900459.307443</v>
+        <v>953218281.5275964</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002077493916984349</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1190085492482118</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02686005461595154</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>476609140.749927</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5009495053.795316</v>
+        <v>1900470736.199486</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001213875388663176</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
+        <v>0.09991392398424108</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02772022940968489</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>950235368.1254517</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>8382908218.404679</v>
+        <v>1728531921.622841</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004447088714047095</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
+        <v>0.06918635489807858</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03160519661665656</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>864265960.8114207</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4847696455.87384</v>
+        <v>3732181943.733609</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0037753458811209</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
+        <v>0.1208487976508843</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03475123434684518</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1866090971.866804</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8160340626.1593</v>
+        <v>1296055478.580541</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001522039951790679</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
+        <v>0.1735695670287442</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04509699698760208</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>648027739.2898424</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5552692839.035452</v>
+        <v>2531954674.441252</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003265206289368066</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
+        <v>0.09432438378747067</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02955148658040623</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1265977337.199365</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6435241891.087522</v>
+        <v>1244892900.849579</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003206140374466322</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
+        <v>0.1116722083079708</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01951306056408669</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>622446450.4208459</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4751487518.79181</v>
+        <v>1367828137.357914</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001054003847610845</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09332628993237484</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03022610930671436</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>683914068.6455098</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7379772048.133147</v>
+        <v>3122299205.236859</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003923286679617211</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
+        <v>0.1236241447752934</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02250189057744252</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1561149602.567526</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8973298331.783199</v>
+        <v>3238322205.463112</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005731927810982688</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
+        <v>0.1192510501453442</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03796479344079021</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1619161102.703978</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7673282626.650855</v>
+        <v>3965538242.886156</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001355753800908099</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
+        <v>0.1151408863711263</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04635896400195947</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1982769121.327666</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7671760866.769263</v>
+        <v>1939389101.103865</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003017676991286552</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
+        <v>0.1389009776298893</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03188537798703522</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>969694550.5237105</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7591724059.605666</v>
+        <v>969335592.8318226</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0027129207393018</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
+        <v>0.1032042300795536</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0460766385249649</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>484667796.4159113</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4564606755.527602</v>
+        <v>1622780832.588289</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001099371931416421</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1055381322182159</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03203677290894679</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>811390416.3118935</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5713630567.483129</v>
+        <v>2611257162.981389</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002060971397083596</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
+        <v>0.1574799688671518</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05833114146203661</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1305628581.609835</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6179957272.219796</v>
+        <v>1154811172.837795</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004375626400400428</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
+        <v>0.109468139109282</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01745457140941243</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>577405586.4151239</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>4621490681.102074</v>
+        <v>827896368.9815286</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002391934393428426</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
+        <v>0.1118612704803113</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03274068876481436</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>413948184.4761464</v>
       </c>
     </row>
     <row r="36">
@@ -1435,19 +1649,25 @@
         <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5484484719.112884</v>
+        <v>2323384705.345637</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003029066181821496</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
+        <v>0.1380391613152162</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02613804989192127</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1161692352.706628</v>
       </c>
     </row>
     <row r="37">
@@ -1463,19 +1683,25 @@
         <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4541915632.063421</v>
+        <v>2365712394.909871</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005256035655944085</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
+        <v>0.09103282124750009</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0325511397243296</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1182856197.446265</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4086910946.045592</v>
+        <v>1462371570.20462</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003424362474757485</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1133269072434102</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02886233789578236</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>731185785.1023102</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4664725349.968931</v>
+        <v>1893839269.039519</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00208676927880252</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
+        <v>0.1399562007285685</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02161542471194614</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>946919634.4646413</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5834173238.079051</v>
+        <v>1347858774.850911</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004222256439314727</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
+        <v>0.1604238474610275</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05963636001210119</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>673929387.4254556</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6689249918.31219</v>
+        <v>2618181849.076629</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001510417569629402</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
+        <v>0.1549982560638536</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04521986179090709</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1309090924.552746</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4288838110.751987</v>
+        <v>4304436916.059212</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00433328096122722</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
+        <v>0.09029198235905576</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0377077827810245</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2152218458.029606</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6248181209.051533</v>
+        <v>2832069862.013134</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004902562017763123</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
+        <v>0.1668917581813185</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02327870828639269</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1416034930.993112</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5248887696.560913</v>
+        <v>2263966757.79228</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001868635014367484</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
+        <v>0.09818368775193825</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03600639281059806</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1131983378.890375</v>
       </c>
     </row>
     <row r="45">
@@ -1687,19 +1955,25 @@
         <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5585875704.765189</v>
+        <v>2311731600.761679</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00150115347553045</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
+        <v>0.1807165609967036</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04144924382774314</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1155865800.38084</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>11351855351.93121</v>
+        <v>5530684423.770283</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004487681516354153</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
+        <v>0.1590894080403457</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0603511914298468</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2765342212.013315</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6329598593.159447</v>
+        <v>4737278841.786026</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003234637837366201</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
+        <v>0.1588393345576303</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04232574695111484</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2368639420.893013</v>
       </c>
     </row>
     <row r="48">
@@ -1771,19 +2057,25 @@
         <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6944311550.278543</v>
+        <v>4316970278.459014</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002727332181095647</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
+        <v>0.07218334042645268</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02936358050776141</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2158485139.289246</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>3975953300.523289</v>
+        <v>1578866372.851366</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004699523250984348</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
+        <v>0.1309421682696078</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03282944692966509</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>789433186.394555</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7913582145.860525</v>
+        <v>3627479110.050794</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003504622495166773</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
+        <v>0.122249405125348</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03749165191774948</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1813739555.088141</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4508768398.114159</v>
+        <v>1224182548.819014</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004923214538042378</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1743986611483056</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05409917906819767</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>612091274.4154721</v>
       </c>
     </row>
     <row r="52">
@@ -1883,19 +2193,25 @@
         <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8388214116.423744</v>
+        <v>4625379044.071327</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001591040865249122</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
+        <v>0.1184142173452478</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04061875361367154</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2312689521.901047</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5858981629.559489</v>
+        <v>2978722832.279862</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003357402095731869</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
+        <v>0.1328369844403414</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02834623663030834</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1489361416.082436</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6547571721.293122</v>
+        <v>4167071835.232551</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004945327004768842</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
+        <v>0.1608369553607307</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04938882397615615</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2083535917.555636</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7431181136.278327</v>
+        <v>4762445885.020452</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003866065415177122</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
+        <v>0.1609131213503555</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02334174540083121</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2381222942.525085</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>6330598555.072906</v>
+        <v>1700080943.343771</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00188120000550266</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
+        <v>0.110617953129153</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04269519605414713</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>850040471.6831979</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8293203414.626956</v>
+        <v>4252025836.604213</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004230504167583059</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
+        <v>0.143404881475041</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02160946379771052</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2126012918.302107</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5358979635.943456</v>
+        <v>1801182563.99527</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00185779620038506</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
+        <v>0.1678201759995032</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03444012327478108</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>900591281.9452136</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7421830906.967445</v>
+        <v>3426507087.365029</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002941578096079998</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
+        <v>0.1009284433823631</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03953265526208862</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1713253543.682514</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4243615025.275747</v>
+        <v>3665085426.417119</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002706101701704253</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.178534619591552</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02218899622419366</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1832542713.261893</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5134771558.17319</v>
+        <v>2516058342.938619</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004245408919815822</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
+        <v>0.114340044102146</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03132745676187464</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1258029171.406199</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5357848442.29593</v>
+        <v>2120885495.896055</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003887890879008993</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
+        <v>0.1913913640016005</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04765668995854661</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1060442747.977873</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7849743534.283344</v>
+        <v>4832757464.504118</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004941539692523218</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
+        <v>0.1044530723089715</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03435978569889585</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2416378732.296235</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4233805583.656522</v>
+        <v>4996953402.182666</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003363579593098674</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1667672229771135</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0257822339136102</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2498476701.164048</v>
       </c>
     </row>
     <row r="65">
@@ -2247,19 +2635,25 @@
         <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5221827745.243057</v>
+        <v>3763535850.479535</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004997577931168259</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
+        <v>0.1335777453544472</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02586538227092734</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1881767925.258896</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4747226266.612773</v>
+        <v>4837787227.379107</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003567982878519892</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
+        <v>0.1329132063498158</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04093097193283452</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2418893613.63157</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6581664652.645607</v>
+        <v>3071011093.079996</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004636171889975651</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
+        <v>0.07407411580280286</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03453832695767832</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1535505546.629376</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5869936565.006532</v>
+        <v>5681642699.798587</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002245764467781191</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
+        <v>0.1343503582283802</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04179756686031032</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2840821349.733936</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4931778680.21157</v>
+        <v>2212562799.252797</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001027569177768965</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
+        <v>0.126118825306237</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05269280096599012</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1106281399.561087</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5103135670.224635</v>
+        <v>3551669094.753624</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002686860939749645</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
+        <v>0.1002151735610114</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04561551005185791</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1775834547.365189</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3951418177.885908</v>
+        <v>4500360309.849478</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003334739521490564</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.143410503541318</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02762072534329197</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2250180154.924739</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7547229302.646562</v>
+        <v>1424070818.44615</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002481980383524477</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
+        <v>0.09583132413170468</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04560169151586518</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>712035409.1563026</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6936396749.336065</v>
+        <v>2185729058.910635</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001342929170016743</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
+        <v>0.1053869781011138</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04210818772191949</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1092864529.516259</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6482087877.283946</v>
+        <v>3734080775.957083</v>
       </c>
       <c r="F74" t="n">
-        <v>0.005082918163067582</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
+        <v>0.1487664161510028</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02311090270228829</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1867040387.915797</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6137587452.373956</v>
+        <v>1585001920.142144</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00377786714401623</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
+        <v>0.1313324637777177</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0323732903765592</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>792500960.06838</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6216463276.505292</v>
+        <v>4532265341.604623</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002066761409037398</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
+        <v>0.1141007232680785</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02709050779321471</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2266132670.836944</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7568451545.046487</v>
+        <v>2111467230.64756</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005002727402686248</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
+        <v>0.1725845873340208</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02840499132631149</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1055733615.32168</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7747156621.595398</v>
+        <v>3177500165.764585</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00369082510146672</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
+        <v>0.1088206095166537</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05693856745086908</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1588750082.818938</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6618223162.475403</v>
+        <v>1708580742.821179</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001911381926986166</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
+        <v>0.1588314533303048</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0338634131161741</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>854290371.4105897</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7017556916.550801</v>
+        <v>4990100470.704616</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002636379188985664</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
+        <v>0.1051663683487561</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03531568675212968</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2495050235.352308</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6553893321.445277</v>
+        <v>5206912156.933104</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004403798590869868</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
+        <v>0.1213941981707288</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03138345776785482</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2603456078.491785</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5749177301.403721</v>
+        <v>4127969226.362855</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004943512134429712</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
+        <v>0.1417459583588988</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01885532520639855</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2063984613.301567</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10054307751.63622</v>
+        <v>2459374471.26801</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003386024014011991</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
+        <v>0.1370989738258048</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03560153239057436</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1229687235.567965</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6985557917.555168</v>
+        <v>1834584379.125938</v>
       </c>
       <c r="F84" t="n">
-        <v>0.00371814936467486</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
+        <v>0.1208462329678976</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04894624363424919</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>917292189.5095757</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4796418877.420523</v>
+        <v>2900865234.838305</v>
       </c>
       <c r="F85" t="n">
-        <v>0.00285191149131206</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1468783510784875</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03963932229689427</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1450432617.521965</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8580148717.439872</v>
+        <v>2571436936.012166</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002558340948022958</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
+        <v>0.1201428374854016</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01702411597950022</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1285718468.050282</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4878029661.419536</v>
+        <v>1138745346.206083</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001201494082003254</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1593980808867076</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03415792634164379</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>569372673.0987389</v>
       </c>
     </row>
     <row r="88">
@@ -2891,19 +3417,25 @@
         <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>9251468250.211395</v>
+        <v>2831483807.858872</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004267229094315373</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
+        <v>0.1200201267995145</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02886749761698304</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1415741903.861687</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7543186139.180196</v>
+        <v>2269569306.811248</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003992957760372114</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
+        <v>0.1533773578834459</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03101439787957119</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1134784653.527437</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6742438791.137482</v>
+        <v>1755835439.431485</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002844002935978457</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
+        <v>0.09629944933450219</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03740742389622062</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>877917719.7157425</v>
       </c>
     </row>
     <row r="91">
@@ -2975,19 +3519,25 @@
         <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7357392278.265984</v>
+        <v>1592100839.285982</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00469262246118633</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
+        <v>0.1615277660723764</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05994403977410254</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>796050419.6372895</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3462409816.563784</v>
+        <v>2770137863.967902</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003511922068939307</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.06678973121932896</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04085832042138345</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1385068931.94844</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7568110636.701041</v>
+        <v>3906330974.147007</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001304028401139135</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
+        <v>0.0922126595921425</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04181566688319321</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1953165486.959815</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5490297668.282167</v>
+        <v>2319843228.196265</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001396403775951986</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
+        <v>0.1159641659207029</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04160990087216478</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1159921614.16283</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5215609990.131577</v>
+        <v>2286239971.626857</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002778971468726737</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
+        <v>0.1284417823429511</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03882976760776</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1143119985.82711</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9501153538.335783</v>
+        <v>1776883254.96063</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003270603374955281</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
+        <v>0.08609799158126441</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04105764131870364</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>888441627.480703</v>
       </c>
     </row>
     <row r="97">
@@ -3143,19 +3723,25 @@
         <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5162519184.159662</v>
+        <v>3504672704.69168</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004854119024067157</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
+        <v>0.1447826542002121</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02146363924404236</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1752336352.355632</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8745235457.543665</v>
+        <v>3528269843.810867</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004291522734879343</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
+        <v>0.1135053050017445</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02382239871438932</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1764134921.901479</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3463268482.198657</v>
+        <v>3371910852.430922</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004580905386986951</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.0936775464889199</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03041626518219187</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1685955426.286755</v>
       </c>
     </row>
     <row r="100">
@@ -3227,19 +3825,25 @@
         <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4594093504.790005</v>
+        <v>3414539693.965312</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00314200558854406</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+        <v>0.1175426026788072</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02081642710508704</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1707269846.864004</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5471146043.852593</v>
+        <v>2417075887.285354</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001246290272402054</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
+        <v>0.2128219772563771</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04833429944086071</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1208537943.64362</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_2.xlsx
+++ b/output/fit_clients/fit_round_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2309830044.346886</v>
+        <v>1683998535.219383</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08474492265423803</v>
+        <v>0.07130231834878163</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03717308622456395</v>
+        <v>0.04086404804759237</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1154915022.174211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2213290132.019603</v>
+        <v>1938387920.203341</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1743245801871256</v>
+        <v>0.1229663211801661</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04143359587705799</v>
+        <v>0.03059055367752855</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1106645065.978162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4144998587.086014</v>
+        <v>5205239245.295733</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1120306087520058</v>
+        <v>0.1435507375007375</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02893236099771158</v>
+        <v>0.02873700188347386</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2072499293.430887</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3016156094.757416</v>
+        <v>2826596134.835752</v>
       </c>
       <c r="F5" t="n">
-        <v>0.068297249385416</v>
+        <v>0.1078504013737986</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03220148892678306</v>
+        <v>0.04985992918987467</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
         <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1508078047.290926</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1845740591.996676</v>
+        <v>2234080313.530268</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09485447306089882</v>
+        <v>0.1430200700437456</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05643381699688387</v>
+        <v>0.03953125399192926</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>922870295.9031266</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2349503950.152712</v>
+        <v>2499575601.720813</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08491254113853333</v>
+        <v>0.0821662919060764</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03486650911126576</v>
+        <v>0.04227315823274302</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1174751975.068279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3305431802.96962</v>
+        <v>3747640137.976008</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1575033478193062</v>
+        <v>0.1595975272289569</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03286115317622185</v>
+        <v>0.02754526160828859</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1652715901.449278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1862383713.787923</v>
+        <v>1520999786.639113</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1319918657117221</v>
+        <v>0.1595227846293256</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02753548373721767</v>
+        <v>0.02880645042575002</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>931191856.8397588</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4576935028.789131</v>
+        <v>4704173172.000285</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1956685378333282</v>
+        <v>0.1376074943988508</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04973250343983975</v>
+        <v>0.0339607186567308</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2288467514.394566</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4043008219.55797</v>
+        <v>4267769967.296597</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1264518223748225</v>
+        <v>0.1190847280356842</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04081618259423875</v>
+        <v>0.04064172564506087</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2021504109.661318</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3275556985.995685</v>
+        <v>2091165070.526111</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1281671104124526</v>
+        <v>0.1492088594595232</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04091029630880703</v>
+        <v>0.0325521397359961</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1637778492.997843</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4076372458.397915</v>
+        <v>4960091428.977424</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0642502692289976</v>
+        <v>0.09079548277438429</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02869756221573658</v>
+        <v>0.0201802537668078</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2038186229.204831</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2941972604.288299</v>
+        <v>3147472376.509754</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1367383202191138</v>
+        <v>0.1180357120610243</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04262660011154101</v>
+        <v>0.03694708955451162</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1470986302.119318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1788270256.151218</v>
+        <v>1339399353.588618</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07936879799857535</v>
+        <v>0.1019959235901558</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03915824824084043</v>
+        <v>0.04653431827613861</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>894135128.1016316</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2104705336.723728</v>
+        <v>1844665393.221393</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1074120319264685</v>
+        <v>0.1026015304268685</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03181156674039157</v>
+        <v>0.03219037672713791</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1052352668.299828</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4315172447.073249</v>
+        <v>5069204735.849181</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1348757017377578</v>
+        <v>0.1347744438562589</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03536450479349766</v>
+        <v>0.04493204658267984</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2157586223.420413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3177158555.318437</v>
+        <v>3179022945.387789</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1640276819819117</v>
+        <v>0.1119811200281453</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02855537651170062</v>
+        <v>0.02262169970237211</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1588579277.674508</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>953218281.5275964</v>
+        <v>1022002542.370392</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1190085492482118</v>
+        <v>0.1725645979504437</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02686005461595154</v>
+        <v>0.02487509559664485</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>476609140.749927</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1900470736.199486</v>
+        <v>1799968211.73468</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09991392398424108</v>
+        <v>0.1564710672758408</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02772022940968489</v>
+        <v>0.02461275156556841</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>950235368.1254517</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1728531921.622841</v>
+        <v>1902339751.068338</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06918635489807858</v>
+        <v>0.0905681908365953</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03160519661665656</v>
+        <v>0.0441118567064054</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>864265960.8114207</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3732181943.733609</v>
+        <v>3622064058.525905</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1208487976508843</v>
+        <v>0.1094501277914428</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03475123434684518</v>
+        <v>0.04879718808208209</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1866090971.866804</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1296055478.580541</v>
+        <v>1110644169.815785</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1735695670287442</v>
+        <v>0.1444869043826768</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04509699698760208</v>
+        <v>0.04552118641583312</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>648027739.2898424</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2531954674.441252</v>
+        <v>2653994141.531109</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09432438378747067</v>
+        <v>0.1147658913905895</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02955148658040623</v>
+        <v>0.02648600915189452</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1265977337.199365</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1244892900.849579</v>
+        <v>1096561507.103403</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1116722083079708</v>
+        <v>0.1014440274402327</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01951306056408669</v>
+        <v>0.02322594712524208</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>622446450.4208459</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1367828137.357914</v>
+        <v>1042585093.177764</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09332628993237484</v>
+        <v>0.1111788941206934</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03022610930671436</v>
+        <v>0.03677494678129844</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>683914068.6455098</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3122299205.236859</v>
+        <v>2848944494.685622</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1236241447752934</v>
+        <v>0.1093163433712515</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02250189057744252</v>
+        <v>0.01681002238941154</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1561149602.567526</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3238322205.463112</v>
+        <v>2706877496.937133</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1192510501453442</v>
+        <v>0.1038339687627666</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03796479344079021</v>
+        <v>0.03280893916912218</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1619161102.703978</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3965538242.886156</v>
+        <v>4325863123.421402</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1151408863711263</v>
+        <v>0.1002176694779141</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04635896400195947</v>
+        <v>0.03978152342801084</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1982769121.327666</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1939389101.103865</v>
+        <v>1625387965.425872</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1389009776298893</v>
+        <v>0.139055278444659</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03188537798703522</v>
+        <v>0.02677432852438637</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>969694550.5237105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>969335592.8318226</v>
+        <v>1254642644.492624</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1032042300795536</v>
+        <v>0.07224297682575895</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0460766385249649</v>
+        <v>0.04232123524905067</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>484667796.4159113</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1622780832.588289</v>
+        <v>1469274404.745986</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1055381322182159</v>
+        <v>0.07850712436615405</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03203677290894679</v>
+        <v>0.03325611709587796</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>811390416.3118935</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2611257162.981389</v>
+        <v>2714075877.887075</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1574799688671518</v>
+        <v>0.1459042405412534</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05833114146203661</v>
+        <v>0.04579074457064873</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1305628581.609835</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1154811172.837795</v>
+        <v>1428964617.321389</v>
       </c>
       <c r="F34" t="n">
-        <v>0.109468139109282</v>
+        <v>0.09326335950855269</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01745457140941243</v>
+        <v>0.02394472241324367</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>577405586.4151239</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>827896368.9815286</v>
+        <v>1043049596.383003</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1118612704803113</v>
+        <v>0.09246279843212199</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03274068876481436</v>
+        <v>0.04505876529296653</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>413948184.4761464</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2323384705.345637</v>
+        <v>2951747811.05847</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1380391613152162</v>
+        <v>0.1610445291835061</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02613804989192127</v>
+        <v>0.02287377279128701</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1161692352.706628</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2365712394.909871</v>
+        <v>2254719743.887706</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09103282124750009</v>
+        <v>0.0767152157625111</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0325511397243296</v>
+        <v>0.04086456957325483</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1182856197.446265</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1462371570.20462</v>
+        <v>1729125790.146285</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1133269072434102</v>
+        <v>0.09775793163360848</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02886233789578236</v>
+        <v>0.02651273205887114</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>731185785.1023102</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1893839269.039519</v>
+        <v>2152905965.118778</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1399562007285685</v>
+        <v>0.1673011250947816</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02161542471194614</v>
+        <v>0.02821623579901116</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>946919634.4646413</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1347858774.850911</v>
+        <v>1659578217.071969</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1604238474610275</v>
+        <v>0.1198923716694709</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05963636001210119</v>
+        <v>0.04020224065443754</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>673929387.4254556</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2618181849.076629</v>
+        <v>1952528936.269217</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1549982560638536</v>
+        <v>0.1339113797733833</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04521986179090709</v>
+        <v>0.03364551712202529</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1309090924.552746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4304436916.059212</v>
+        <v>4213286813.643516</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09029198235905576</v>
+        <v>0.08570449576286265</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0377077827810245</v>
+        <v>0.04641299174054343</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2152218458.029606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2832069862.013134</v>
+        <v>2673801622.156348</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1668917581813185</v>
+        <v>0.138488555020425</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02327870828639269</v>
+        <v>0.01732214664049966</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1416034930.993112</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2263966757.79228</v>
+        <v>1623177345.039695</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09818368775193825</v>
+        <v>0.08066191484386617</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03600639281059806</v>
+        <v>0.02892654689141612</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1131983378.890375</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2311731600.761679</v>
+        <v>1876755683.198956</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1807165609967036</v>
+        <v>0.1230801087367926</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04144924382774314</v>
+        <v>0.04982184211973985</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1155865800.38084</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5530684423.770283</v>
+        <v>4527720122.392718</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1590894080403457</v>
+        <v>0.1277841864338662</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0603511914298468</v>
+        <v>0.04096591399399277</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2765342212.013315</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4737278841.786026</v>
+        <v>4598797817.906278</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1588393345576303</v>
+        <v>0.1949024793100224</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04232574695111484</v>
+        <v>0.04370239303321834</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2368639420.893013</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4316970278.459014</v>
+        <v>4697385511.443045</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07218334042645268</v>
+        <v>0.1026916015544168</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02936358050776141</v>
+        <v>0.03691889883676162</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2158485139.289246</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1578866372.851366</v>
+        <v>1841332107.956076</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1309421682696078</v>
+        <v>0.1744460145071477</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03282944692966509</v>
+        <v>0.03865572321065527</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>789433186.394555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3627479110.050794</v>
+        <v>3404707558.640779</v>
       </c>
       <c r="F50" t="n">
-        <v>0.122249405125348</v>
+        <v>0.1116873712993259</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03749165191774948</v>
+        <v>0.04403664251717369</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1813739555.088141</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1224182548.819014</v>
+        <v>1077420852.26033</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1743986611483056</v>
+        <v>0.1645112856215063</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05409917906819767</v>
+        <v>0.04144323675642857</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>612091274.4154721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4625379044.071327</v>
+        <v>3504380766.054763</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1184142173452478</v>
+        <v>0.08826986323250637</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04061875361367154</v>
+        <v>0.04125758591222013</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2312689521.901047</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2978722832.279862</v>
+        <v>3499981426.977596</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1328369844403414</v>
+        <v>0.1489616856838819</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02834623663030834</v>
+        <v>0.0278042805242916</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1489361416.082436</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4167071835.232551</v>
+        <v>3554997690.420493</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1608369553607307</v>
+        <v>0.1564781007308222</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04938882397615615</v>
+        <v>0.04252789834266683</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2083535917.555636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4762445885.020452</v>
+        <v>3374611932.655758</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1609131213503555</v>
+        <v>0.1718482316550038</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02334174540083121</v>
+        <v>0.02678588975272389</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2381222942.525085</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1700080943.343771</v>
+        <v>1580287044.593137</v>
       </c>
       <c r="F56" t="n">
-        <v>0.110617953129153</v>
+        <v>0.1099315545645818</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04269519605414713</v>
+        <v>0.04360224471701932</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>850040471.6831979</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4252025836.604213</v>
+        <v>4054002588.936611</v>
       </c>
       <c r="F57" t="n">
-        <v>0.143404881475041</v>
+        <v>0.1547000947969816</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02160946379771052</v>
+        <v>0.02752298668239148</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2126012918.302107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1801182563.99527</v>
+        <v>1647725094.424661</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1678201759995032</v>
+        <v>0.1885432844455353</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03444012327478108</v>
+        <v>0.03853025949067912</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>900591281.9452136</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3426507087.365029</v>
+        <v>4216458217.968879</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1009284433823631</v>
+        <v>0.1237119949795137</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03953265526208862</v>
+        <v>0.04764285423478104</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1713253543.682514</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3665085426.417119</v>
+        <v>2482534996.044031</v>
       </c>
       <c r="F60" t="n">
-        <v>0.178534619591552</v>
+        <v>0.1892785439913321</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02218899622419366</v>
+        <v>0.02882073124899281</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1832542713.261893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2516058342.938619</v>
+        <v>2663590176.425398</v>
       </c>
       <c r="F61" t="n">
-        <v>0.114340044102146</v>
+        <v>0.1707436272448824</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03132745676187464</v>
+        <v>0.02579557970637307</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1258029171.406199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2120885495.896055</v>
+        <v>1689925211.087286</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1913913640016005</v>
+        <v>0.1499015769540923</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04765668995854661</v>
+        <v>0.04838809522376637</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1060442747.977873</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4832757464.504118</v>
+        <v>4218136413.977744</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1044530723089715</v>
+        <v>0.08159099470398587</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03435978569889585</v>
+        <v>0.0334628624324485</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2416378732.296235</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4996953402.182666</v>
+        <v>4698941010.093395</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1667672229771135</v>
+        <v>0.1779861032048822</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0257822339136102</v>
+        <v>0.02740767375224698</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2498476701.164048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3763535850.479535</v>
+        <v>4186084158.300087</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1335777453544472</v>
+        <v>0.1274208466280992</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02586538227092734</v>
+        <v>0.02287905995859034</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1881767925.258896</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4837787227.379107</v>
+        <v>4242410093.828536</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1329132063498158</v>
+        <v>0.142265048643868</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04093097193283452</v>
+        <v>0.04247814055222283</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2418893613.63157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3071011093.079996</v>
+        <v>2441823018.694126</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07407411580280286</v>
+        <v>0.08506223529916994</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03453832695767832</v>
+        <v>0.04987350296581416</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1535505546.629376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5681642699.798587</v>
+        <v>4876411275.40341</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1343503582283802</v>
+        <v>0.1412499013946298</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04179756686031032</v>
+        <v>0.03630846933892786</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2840821349.733936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2212562799.252797</v>
+        <v>1696018313.015269</v>
       </c>
       <c r="F69" t="n">
-        <v>0.126118825306237</v>
+        <v>0.159384013658427</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05269280096599012</v>
+        <v>0.03891902750563609</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1106281399.561087</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3551669094.753624</v>
+        <v>3706913055.538092</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1002151735610114</v>
+        <v>0.09839651725675894</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04561551005185791</v>
+        <v>0.0302028851721318</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1775834547.365189</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4500360309.849478</v>
+        <v>4150563041.205725</v>
       </c>
       <c r="F71" t="n">
-        <v>0.143410503541318</v>
+        <v>0.1582838080790234</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02762072534329197</v>
+        <v>0.03199087743442859</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2250180154.924739</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1424070818.44615</v>
+        <v>1801186391.186294</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09583132413170468</v>
+        <v>0.08022913490977603</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04560169151586518</v>
+        <v>0.03263793318824579</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>712035409.1563026</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2185729058.910635</v>
+        <v>3514977974.833526</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1053869781011138</v>
+        <v>0.07971095458063517</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04210818772191949</v>
+        <v>0.03767608318160674</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1092864529.516259</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3734080775.957083</v>
+        <v>3841032766.131429</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1487664161510028</v>
+        <v>0.1324790727591609</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02311090270228829</v>
+        <v>0.0308485441152942</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1867040387.915797</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1585001920.142144</v>
+        <v>1894807867.859003</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1313324637777177</v>
+        <v>0.1411748534965221</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0323732903765592</v>
+        <v>0.03573058923022984</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>792500960.06838</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4532265341.604623</v>
+        <v>4121172893.557051</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1141007232680785</v>
+        <v>0.1067198189741069</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02709050779321471</v>
+        <v>0.02090435452883135</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2266132670.836944</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2111467230.64756</v>
+        <v>1736668944.086248</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1725845873340208</v>
+        <v>0.1523531580782383</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02840499132631149</v>
+        <v>0.03179888928565279</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1055733615.32168</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3177500165.764585</v>
+        <v>3261023798.122671</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1088206095166537</v>
+        <v>0.1162600557556928</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05693856745086908</v>
+        <v>0.03527037870660846</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1588750082.818938</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1708580742.821179</v>
+        <v>1533914515.062715</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1588314533303048</v>
+        <v>0.1318809397400546</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0338634131161741</v>
+        <v>0.03147357972430529</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>854290371.4105897</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4990100470.704616</v>
+        <v>4041903755.036315</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1051663683487561</v>
+        <v>0.07115507361049106</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03531568675212968</v>
+        <v>0.03523484922792116</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2495050235.352308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5206912156.933104</v>
+        <v>4651481868.89695</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1213941981707288</v>
+        <v>0.1030588194667302</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03138345776785482</v>
+        <v>0.02232925636066512</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2603456078.491785</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4127969226.362855</v>
+        <v>5223889201.509697</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1417459583588988</v>
+        <v>0.1647800350352297</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01885532520639855</v>
+        <v>0.0215784486652759</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2063984613.301567</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2459374471.26801</v>
+        <v>1737197069.53873</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1370989738258048</v>
+        <v>0.1335035314057353</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03560153239057436</v>
+        <v>0.03165284647096121</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1229687235.567965</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1834584379.125938</v>
+        <v>2274979389.484017</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1208462329678976</v>
+        <v>0.1165755621092839</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04894624363424919</v>
+        <v>0.04183464778049099</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>917292189.5095757</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2900865234.838305</v>
+        <v>2799967467.201342</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1468783510784875</v>
+        <v>0.1120762814440564</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03963932229689427</v>
+        <v>0.05429483548131303</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1450432617.521965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2571436936.012166</v>
+        <v>2453062619.40884</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1201428374854016</v>
+        <v>0.1682042522122595</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01702411597950022</v>
+        <v>0.01705635234072416</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1285718468.050282</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1138745346.206083</v>
+        <v>1475258858.434145</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1593980808867076</v>
+        <v>0.1360814645692579</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03415792634164379</v>
+        <v>0.03400397960717415</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>569372673.0987389</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2831483807.858872</v>
+        <v>3720744366.395008</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1200201267995145</v>
+        <v>0.1182781767084206</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02886749761698304</v>
+        <v>0.03679688900342069</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1415741903.861687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2269569306.811248</v>
+        <v>3162852339.368557</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1533773578834459</v>
+        <v>0.1443901298885737</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03101439787957119</v>
+        <v>0.02970623567744709</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1134784653.527437</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1755835439.431485</v>
+        <v>1639923004.532238</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09629944933450219</v>
+        <v>0.1352932539424476</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03740742389622062</v>
+        <v>0.04660443947393392</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>877917719.7157425</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1592100839.285982</v>
+        <v>2090028329.906247</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1615277660723764</v>
+        <v>0.1671958849784571</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05994403977410254</v>
+        <v>0.05380065340173634</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>796050419.6372895</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2770137863.967902</v>
+        <v>2401962693.351259</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06678973121932896</v>
+        <v>0.08389983464659642</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04085832042138345</v>
+        <v>0.04507939947838347</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1385068931.94844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3906330974.147007</v>
+        <v>3142081533.782433</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0922126595921425</v>
+        <v>0.1310301614533749</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04181566688319321</v>
+        <v>0.04612765390243964</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1953165486.959815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2319843228.196265</v>
+        <v>1561528893.262361</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1159641659207029</v>
+        <v>0.1469449388678298</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04160990087216478</v>
+        <v>0.02808985477284838</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1159921614.16283</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2286239971.626857</v>
+        <v>2951918326.92661</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1284417823429511</v>
+        <v>0.08424212574016257</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03882976760776</v>
+        <v>0.04919517455291592</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1143119985.82711</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1776883254.96063</v>
+        <v>1896776559.790214</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08609799158126441</v>
+        <v>0.1316262345486339</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04105764131870364</v>
+        <v>0.03752560739133869</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>888441627.480703</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3504672704.69168</v>
+        <v>3254244621.557195</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1447826542002121</v>
+        <v>0.1428786217893064</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02146363924404236</v>
+        <v>0.02041968354647872</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1752336352.355632</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3528269843.810867</v>
+        <v>2406819107.384394</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1135053050017445</v>
+        <v>0.09009019352451822</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02382239871438932</v>
+        <v>0.03272302963808233</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1764134921.901479</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3371910852.430922</v>
+        <v>3394262102.629809</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0936775464889199</v>
+        <v>0.1262062792483969</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03041626518219187</v>
+        <v>0.02827132963840945</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1685955426.286755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3414539693.965312</v>
+        <v>3530973013.71955</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1175426026788072</v>
+        <v>0.1735716247644869</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02081642710508704</v>
+        <v>0.02052185064600815</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1707269846.864004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2417075887.285354</v>
+        <v>2271945888.67311</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2128219772563771</v>
+        <v>0.1550128254156628</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04833429944086071</v>
+        <v>0.03749328215395643</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1208537943.64362</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_2.xlsx
+++ b/output/fit_clients/fit_round_2.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1683998535.219383</v>
+        <v>2023309018.002878</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07130231834878163</v>
+        <v>0.1027604659164626</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04086404804759237</v>
+        <v>0.0393563883718389</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1938387920.203341</v>
+        <v>2122514353.405167</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1229663211801661</v>
+        <v>0.1282480454208999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03059055367752855</v>
+        <v>0.03564794908528769</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5205239245.295733</v>
+        <v>4129188111.663301</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1435507375007375</v>
+        <v>0.1211254592872564</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02873700188347386</v>
+        <v>0.02599302201270676</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2826596134.835752</v>
+        <v>3162034086.244079</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1078504013737986</v>
+        <v>0.09685587350093613</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04985992918987467</v>
+        <v>0.03926533080247043</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2234080313.530268</v>
+        <v>2224042985.326024</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1430200700437456</v>
+        <v>0.1068918029400821</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03953125399192926</v>
+        <v>0.04663049151598714</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2499575601.720813</v>
+        <v>2332568898.001671</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0821662919060764</v>
+        <v>0.0623858963986546</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04227315823274302</v>
+        <v>0.04417316789046134</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3747640137.976008</v>
+        <v>3393295005.562438</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1595975272289569</v>
+        <v>0.2014990635522426</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02754526160828859</v>
+        <v>0.03005793164183747</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1520999786.639113</v>
+        <v>2262345326.089222</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1595227846293256</v>
+        <v>0.1772880022226775</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02880645042575002</v>
+        <v>0.02630893238250005</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4704173172.000285</v>
+        <v>5013754989.867428</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1376074943988508</v>
+        <v>0.1744038946423795</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0339607186567308</v>
+        <v>0.04042044989374771</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4267769967.296597</v>
+        <v>2996501359.93416</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1190847280356842</v>
+        <v>0.1682319149756998</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04064172564506087</v>
+        <v>0.03730619415728922</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2091165070.526111</v>
+        <v>2277830459.410513</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1492088594595232</v>
+        <v>0.1560505994136647</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0325521397359961</v>
+        <v>0.05387372529978051</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4960091428.977424</v>
+        <v>3901878302.151377</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09079548277438429</v>
+        <v>0.07702019179378156</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0201802537668078</v>
+        <v>0.02600566673727539</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3147472376.509754</v>
+        <v>2448090155.110482</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1180357120610243</v>
+        <v>0.1484547909084082</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03694708955451162</v>
+        <v>0.04393702080254557</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1339399353.588618</v>
+        <v>1230441640.102435</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1019959235901558</v>
+        <v>0.06694383541337302</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04653431827613861</v>
+        <v>0.03111703113471388</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1844665393.221393</v>
+        <v>2479561373.264087</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1026015304268685</v>
+        <v>0.1016575355781762</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03219037672713791</v>
+        <v>0.05138303274497356</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5069204735.849181</v>
+        <v>5332442381.472941</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1347744438562589</v>
+        <v>0.1687083897691413</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04493204658267984</v>
+        <v>0.05033449581709268</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3179022945.387789</v>
+        <v>2876245689.006775</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1119811200281453</v>
+        <v>0.1283105256568819</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02262169970237211</v>
+        <v>0.0262939472157933</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1022002542.370392</v>
+        <v>871657309.2992692</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1725645979504437</v>
+        <v>0.1330163030963553</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02487509559664485</v>
+        <v>0.01857925969899911</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1799968211.73468</v>
+        <v>2123313390.06904</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1564710672758408</v>
+        <v>0.1551443417641611</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02461275156556841</v>
+        <v>0.02205066617469984</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1902339751.068338</v>
+        <v>2495398808.409883</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0905681908365953</v>
+        <v>0.09068973587884385</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0441118567064054</v>
+        <v>0.04376980296692423</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3622064058.525905</v>
+        <v>3541993691.085081</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1094501277914428</v>
+        <v>0.1004911220334037</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04879718808208209</v>
+        <v>0.05354890472082258</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1110644169.815785</v>
+        <v>960513514.8811549</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1444869043826768</v>
+        <v>0.1270487003173604</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04552118641583312</v>
+        <v>0.04212448676800053</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2653994141.531109</v>
+        <v>3591416687.493293</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1147658913905895</v>
+        <v>0.09891277143207852</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02648600915189452</v>
+        <v>0.03428824422685174</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1096561507.103403</v>
+        <v>1112792774.331586</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1014440274402327</v>
+        <v>0.0864662439020273</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02322594712524208</v>
+        <v>0.02181119869892946</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1042585093.177764</v>
+        <v>1198142349.754565</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1111788941206934</v>
+        <v>0.08142517756854505</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03677494678129844</v>
+        <v>0.0339504642062653</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2848944494.685622</v>
+        <v>4506410261.450885</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1093163433712515</v>
+        <v>0.1075071632959766</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01681002238941154</v>
+        <v>0.01813383124839562</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2706877496.937133</v>
+        <v>2627452713.160146</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1038339687627666</v>
+        <v>0.1443726792111925</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03280893916912218</v>
+        <v>0.03227224613910146</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4325863123.421402</v>
+        <v>5401660322.759447</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1002176694779141</v>
+        <v>0.09909621433224525</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03978152342801084</v>
+        <v>0.03546166774498431</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1625387965.425872</v>
+        <v>1673007013.808717</v>
       </c>
       <c r="F30" t="n">
-        <v>0.139055278444659</v>
+        <v>0.1236944776279579</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02677432852438637</v>
+        <v>0.02835856686095463</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1254642644.492624</v>
+        <v>1096458790.139162</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07224297682575895</v>
+        <v>0.08728887145314775</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04232123524905067</v>
+        <v>0.03891127093407584</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1469274404.745986</v>
+        <v>1888035557.30696</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07850712436615405</v>
+        <v>0.09646058494229115</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03325611709587796</v>
+        <v>0.03743092578766243</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2714075877.887075</v>
+        <v>2700468136.570409</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1459042405412534</v>
+        <v>0.141042628115711</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04579074457064873</v>
+        <v>0.05771476443449388</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1428964617.321389</v>
+        <v>1094471191.960408</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09326335950855269</v>
+        <v>0.1214092991324472</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02394472241324367</v>
+        <v>0.02825988747201492</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1043049596.383003</v>
+        <v>1361893259.470369</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09246279843212199</v>
+        <v>0.07927921323670406</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04505876529296653</v>
+        <v>0.04075932662360736</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2951747811.05847</v>
+        <v>2499661434.070447</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1610445291835061</v>
+        <v>0.1808766392857382</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02287377279128701</v>
+        <v>0.02257637937825702</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2254719743.887706</v>
+        <v>2024435113.776109</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0767152157625111</v>
+        <v>0.09174582179535683</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04086456957325483</v>
+        <v>0.04069379000919211</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1729125790.146285</v>
+        <v>2148447176.365443</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09775793163360848</v>
+        <v>0.1102999626779678</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02651273205887114</v>
+        <v>0.03477519293555834</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2152905965.118778</v>
+        <v>2127738098.914983</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1673011250947816</v>
+        <v>0.1773142207179804</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02821623579901116</v>
+        <v>0.02250870535143852</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1659578217.071969</v>
+        <v>1579890045.396742</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1198923716694709</v>
+        <v>0.106151383284279</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04020224065443754</v>
+        <v>0.0387929370710445</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1952528936.269217</v>
+        <v>2699382735.790556</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1339113797733833</v>
+        <v>0.1294222104138195</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03364551712202529</v>
+        <v>0.03391744375096057</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4213286813.643516</v>
+        <v>3088834793.03257</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08570449576286265</v>
+        <v>0.08830651244486283</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04641299174054343</v>
+        <v>0.04210615770524147</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2673801622.156348</v>
+        <v>2582771958.765175</v>
       </c>
       <c r="F43" t="n">
-        <v>0.138488555020425</v>
+        <v>0.1458880470420205</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01732214664049966</v>
+        <v>0.01589455171048547</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1623177345.039695</v>
+        <v>1877445513.090384</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08066191484386617</v>
+        <v>0.102775376056036</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02892654689141612</v>
+        <v>0.03125614534493728</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1876755683.198956</v>
+        <v>1916835636.484948</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1230801087367926</v>
+        <v>0.1623557072946348</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04982184211973985</v>
+        <v>0.03939616067882876</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4527720122.392718</v>
+        <v>4564320062.91938</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1277841864338662</v>
+        <v>0.1209810964505031</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04096591399399277</v>
+        <v>0.05844407078588613</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4598797817.906278</v>
+        <v>4990666468.706791</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1949024793100224</v>
+        <v>0.1819439628152019</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04370239303321834</v>
+        <v>0.03790793469096124</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4697385511.443045</v>
+        <v>3570111679.462592</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1026916015544168</v>
+        <v>0.0777979798232655</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03691889883676162</v>
+        <v>0.02670094796921335</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1841332107.956076</v>
+        <v>1990495135.237764</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1744460145071477</v>
+        <v>0.1505523800237235</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03865572321065527</v>
+        <v>0.03834262496540265</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3404707558.640779</v>
+        <v>4003854859.517627</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1116873712993259</v>
+        <v>0.1319778961069487</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04403664251717369</v>
+        <v>0.04398130906149022</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1077420852.26033</v>
+        <v>1002688100.451835</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1645112856215063</v>
+        <v>0.1421682652275615</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04144323675642857</v>
+        <v>0.04399651294544758</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3504380766.054763</v>
+        <v>3251406064.738812</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08826986323250637</v>
+        <v>0.1353408032370746</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04125758591222013</v>
+        <v>0.06037721722553238</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3499981426.977596</v>
+        <v>2906341575.050302</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1489616856838819</v>
+        <v>0.1913960630032213</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0278042805242916</v>
+        <v>0.02277661479036696</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3554997690.420493</v>
+        <v>3069882415.951447</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1564781007308222</v>
+        <v>0.1120633470760353</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04252789834266683</v>
+        <v>0.05311410084183448</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3374611932.655758</v>
+        <v>3561374613.953543</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1718482316550038</v>
+        <v>0.1410221937325803</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02678588975272389</v>
+        <v>0.02183031283216973</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1580287044.593137</v>
+        <v>1598227757.744641</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1099315545645818</v>
+        <v>0.1644315767396717</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04360224471701932</v>
+        <v>0.05445084741057156</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4054002588.936611</v>
+        <v>3251829245.085728</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1547000947969816</v>
+        <v>0.1374760293678842</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02752298668239148</v>
+        <v>0.02706713410516933</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1647725094.424661</v>
+        <v>1877650776.271905</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1885432844455353</v>
+        <v>0.1958681342396286</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03853025949067912</v>
+        <v>0.02470945055208469</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4216458217.968879</v>
+        <v>4633893956.458497</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1237119949795137</v>
+        <v>0.124196306573568</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04764285423478104</v>
+        <v>0.04624489201396904</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2482534996.044031</v>
+        <v>3027340001.499795</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1892785439913321</v>
+        <v>0.1459037447884024</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02882073124899281</v>
+        <v>0.03069024855740533</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2663590176.425398</v>
+        <v>2795924124.381662</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1707436272448824</v>
+        <v>0.1215814247435332</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02579557970637307</v>
+        <v>0.03056931706531351</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1689925211.087286</v>
+        <v>1918633173.243549</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1499015769540923</v>
+        <v>0.1564435776600149</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04838809522376637</v>
+        <v>0.03616323481310815</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4218136413.977744</v>
+        <v>3928353966.583354</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08159099470398587</v>
+        <v>0.07527943564605546</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0334628624324485</v>
+        <v>0.04318521089045557</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4698941010.093395</v>
+        <v>3490985374.394607</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1779861032048822</v>
+        <v>0.1319141615457579</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02740767375224698</v>
+        <v>0.03482187914874096</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4186084158.300087</v>
+        <v>5906028781.877402</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1274208466280992</v>
+        <v>0.1458983235103019</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02287905995859034</v>
+        <v>0.01982534981297793</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4242410093.828536</v>
+        <v>4106321203.071873</v>
       </c>
       <c r="F66" t="n">
-        <v>0.142265048643868</v>
+        <v>0.1107329241184666</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04247814055222283</v>
+        <v>0.03420628325904101</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2441823018.694126</v>
+        <v>3066804038.356009</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08506223529916994</v>
+        <v>0.09563210600367607</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04987350296581416</v>
+        <v>0.04358023879412998</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4876411275.40341</v>
+        <v>4770164761.487247</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1412499013946298</v>
+        <v>0.107207040759794</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03630846933892786</v>
+        <v>0.05104490995655944</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1696018313.015269</v>
+        <v>1499295402.406517</v>
       </c>
       <c r="F69" t="n">
-        <v>0.159384013658427</v>
+        <v>0.128396033014173</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03891902750563609</v>
+        <v>0.04538319455817135</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3706913055.538092</v>
+        <v>3578807529.365267</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09839651725675894</v>
+        <v>0.0882587125337557</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0302028851721318</v>
+        <v>0.03174806212640701</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4150563041.205725</v>
+        <v>4232145447.007845</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1582838080790234</v>
+        <v>0.1256903427756213</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03199087743442859</v>
+        <v>0.03298064373902923</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1801186391.186294</v>
+        <v>1644612781.844548</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08022913490977603</v>
+        <v>0.07348990928430159</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03263793318824579</v>
+        <v>0.03464353601917911</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3514977974.833526</v>
+        <v>2241921961.412344</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07971095458063517</v>
+        <v>0.1073102228107245</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03767608318160674</v>
+        <v>0.03499408830829407</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3841032766.131429</v>
+        <v>2748946415.229428</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1324790727591609</v>
+        <v>0.1210122604096262</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0308485441152942</v>
+        <v>0.03292507651399051</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1894807867.859003</v>
+        <v>1943610311.828814</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1411748534965221</v>
+        <v>0.1390968533820637</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03573058923022984</v>
+        <v>0.02390234283723894</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4121172893.557051</v>
+        <v>4973425812.736168</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1067198189741069</v>
+        <v>0.1236852048964771</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02090435452883135</v>
+        <v>0.03409693145884603</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1736668944.086248</v>
+        <v>1781355950.514474</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1523531580782383</v>
+        <v>0.1819920048561241</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03179888928565279</v>
+        <v>0.02331227560024022</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3261023798.122671</v>
+        <v>3292924529.701778</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1162600557556928</v>
+        <v>0.09954086766494109</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03527037870660846</v>
+        <v>0.0363287347119675</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1533914515.062715</v>
+        <v>1874894775.102221</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1318809397400546</v>
+        <v>0.1349697767630812</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03147357972430529</v>
+        <v>0.02968878299346796</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4041903755.036315</v>
+        <v>4241512572.296091</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07115507361049106</v>
+        <v>0.09059721667187078</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03523484922792116</v>
+        <v>0.02526814950623153</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4651481868.89695</v>
+        <v>3859050826.027772</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1030588194667302</v>
+        <v>0.1198988589811944</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02232925636066512</v>
+        <v>0.02452327629703658</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5223889201.509697</v>
+        <v>4621249288.218299</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1647800350352297</v>
+        <v>0.1896103423364057</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0215784486652759</v>
+        <v>0.02951826947404692</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1737197069.53873</v>
+        <v>2329965983.738624</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1335035314057353</v>
+        <v>0.1182161405001832</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03165284647096121</v>
+        <v>0.02833627240267621</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2274979389.484017</v>
+        <v>1814445107.726108</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1165755621092839</v>
+        <v>0.07308068583992643</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04183464778049099</v>
+        <v>0.03283420028371094</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2799967467.201342</v>
+        <v>2457650933.912269</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1120762814440564</v>
+        <v>0.1116609715496252</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05429483548131303</v>
+        <v>0.03959215420823226</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2453062619.40884</v>
+        <v>2124236704.4319</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1682042522122595</v>
+        <v>0.1415527781652275</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01705635234072416</v>
+        <v>0.01872264563369102</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1475258858.434145</v>
+        <v>1305464444.182147</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1360814645692579</v>
+        <v>0.1302164779023847</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03400397960717415</v>
+        <v>0.03708730542992367</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3720744366.395008</v>
+        <v>2492449289.118072</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1182781767084206</v>
+        <v>0.132685011551782</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03679688900342069</v>
+        <v>0.02533699838297664</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3162852339.368557</v>
+        <v>3239882988.18333</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1443901298885737</v>
+        <v>0.1547487611808766</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02970623567744709</v>
+        <v>0.03758579516084701</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1639923004.532238</v>
+        <v>1954773015.570661</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1352932539424476</v>
+        <v>0.09630655890299411</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04660443947393392</v>
+        <v>0.04341289805229109</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2090028329.906247</v>
+        <v>1490419076.945499</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1671958849784571</v>
+        <v>0.1573000660270752</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05380065340173634</v>
+        <v>0.03734270320320369</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2401962693.351259</v>
+        <v>2704412262.921674</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08389983464659642</v>
+        <v>0.07375196868030726</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04507939947838347</v>
+        <v>0.04118918569407196</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3142081533.782433</v>
+        <v>4391300925.217496</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1310301614533749</v>
+        <v>0.08661916371628817</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04612765390243964</v>
+        <v>0.04888845897390923</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1561528893.262361</v>
+        <v>1572245825.445189</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1469449388678298</v>
+        <v>0.1398376640296929</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02808985477284838</v>
+        <v>0.03239964346376506</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2951918326.92661</v>
+        <v>2933973072.462803</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08424212574016257</v>
+        <v>0.1175666893950145</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04919517455291592</v>
+        <v>0.03328465415027279</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1896776559.790214</v>
+        <v>1968592764.434619</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1316262345486339</v>
+        <v>0.110216568421177</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03752560739133869</v>
+        <v>0.03362484715412602</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3254244621.557195</v>
+        <v>4857645051.105179</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1428786217893064</v>
+        <v>0.1574134343312317</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02041968354647872</v>
+        <v>0.02641335848414648</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2406819107.384394</v>
+        <v>3485066008.73185</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09009019352451822</v>
+        <v>0.1032586970233728</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03272302963808233</v>
+        <v>0.0220222093499403</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3394262102.629809</v>
+        <v>2795414812.432716</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1262062792483969</v>
+        <v>0.1280446715306198</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02827132963840945</v>
+        <v>0.03513544455435232</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3530973013.71955</v>
+        <v>2901006965.855376</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1735716247644869</v>
+        <v>0.1138926324589557</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02052185064600815</v>
+        <v>0.01948506439792726</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2271945888.67311</v>
+        <v>3523473461.993434</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1550128254156628</v>
+        <v>0.188054033904314</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03749328215395643</v>
+        <v>0.04396402024730765</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_2.xlsx
+++ b/output/fit_clients/fit_round_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2023309018.002878</v>
+        <v>2061260036.580428</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1027604659164626</v>
+        <v>0.08017211435555524</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0393563883718389</v>
+        <v>0.03198354455362223</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2122514353.405167</v>
+        <v>2589320111.145663</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1282480454208999</v>
+        <v>0.1257112877656282</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03564794908528769</v>
+        <v>0.03955604731284873</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4129188111.663301</v>
+        <v>4450911181.962935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1211254592872564</v>
+        <v>0.1484584057318202</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02599302201270676</v>
+        <v>0.02628951944817803</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>216.1661368536218</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3162034086.244079</v>
+        <v>3440929469.568222</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09685587350093613</v>
+        <v>0.07689137059816695</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03926533080247043</v>
+        <v>0.046112454400332</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2224042985.326024</v>
+        <v>2840301761.941516</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1068918029400821</v>
+        <v>0.133963888062365</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04663049151598714</v>
+        <v>0.03571119571354617</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2332568898.001671</v>
+        <v>2604834601.448607</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0623858963986546</v>
+        <v>0.07401405586033405</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04417316789046134</v>
+        <v>0.0460124226004256</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3393295005.562438</v>
+        <v>2404798810.137477</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2014990635522426</v>
+        <v>0.1862336545401703</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03005793164183747</v>
+        <v>0.02390666666105136</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2262345326.089222</v>
+        <v>2111012549.492619</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1772880022226775</v>
+        <v>0.198456375045769</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02630893238250005</v>
+        <v>0.03619957532113496</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5013754989.867428</v>
+        <v>5726344658.101912</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1744038946423795</v>
+        <v>0.140008942751568</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04042044989374771</v>
+        <v>0.04753667309515116</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>239.2661901402139</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2996501359.93416</v>
+        <v>2587141087.836322</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1682319149756998</v>
+        <v>0.1804628003441358</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03730619415728922</v>
+        <v>0.04572133227782588</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2277830459.410513</v>
+        <v>2457730675.430528</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1560505994136647</v>
+        <v>0.1381519989106498</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05387372529978051</v>
+        <v>0.0372574945919713</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3901878302.151377</v>
+        <v>5286022425.426668</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07702019179378156</v>
+        <v>0.07974216767136194</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02600566673727539</v>
+        <v>0.01927971700518055</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>212.3214015209364</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2448090155.110482</v>
+        <v>2943291941.522361</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1484547909084082</v>
+        <v>0.1167226330531758</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04393702080254557</v>
+        <v>0.02709783194649206</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1230441640.102435</v>
+        <v>1637868413.38178</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06694383541337302</v>
+        <v>0.09145466766958875</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03111703113471388</v>
+        <v>0.03690469433526668</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2479561373.264087</v>
+        <v>2677874121.199821</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1016575355781762</v>
+        <v>0.09033278884720028</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05138303274497356</v>
+        <v>0.04125698609610379</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5332442381.472941</v>
+        <v>4482776254.588113</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1687083897691413</v>
+        <v>0.1543801660704544</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05033449581709268</v>
+        <v>0.0413345596496933</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2876245689.006775</v>
+        <v>3404504220.633758</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1283105256568819</v>
+        <v>0.1706530823241929</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0262939472157933</v>
+        <v>0.03443566072013411</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1102,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>871657309.2992692</v>
+        <v>1110664044.672247</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1330163030963553</v>
+        <v>0.1857080368147153</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01857925969899911</v>
+        <v>0.02460433499449315</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2123313390.06904</v>
+        <v>2297329113.091372</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1551443417641611</v>
+        <v>0.1401548749902296</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02205066617469984</v>
+        <v>0.0319190984719484</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2495398808.409883</v>
+        <v>1742433289.598699</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09068973587884385</v>
+        <v>0.08188987924427572</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04376980296692423</v>
+        <v>0.03425564143204571</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3541993691.085081</v>
+        <v>2555118789.42113</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1004911220334037</v>
+        <v>0.09022250586330244</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05354890472082258</v>
+        <v>0.053546108779855</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>960513514.8811549</v>
+        <v>1461677175.088414</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1270487003173604</v>
+        <v>0.1522055196625396</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04212448676800053</v>
+        <v>0.04125830951365716</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3591416687.493293</v>
+        <v>3356514723.006213</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09891277143207852</v>
+        <v>0.1260987760540317</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03428824422685174</v>
+        <v>0.03696219742646245</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1112792774.331586</v>
+        <v>903924349.8854432</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0864662439020273</v>
+        <v>0.09796424981774571</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02181119869892946</v>
+        <v>0.02360839344567498</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1198142349.754565</v>
+        <v>1277675869.283985</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08142517756854505</v>
+        <v>0.09327498927991702</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0339504642062653</v>
+        <v>0.02769856348730367</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1382,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4506410261.450885</v>
+        <v>3678160265.493882</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1075071632959766</v>
+        <v>0.1553275698234408</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01813383124839562</v>
+        <v>0.01694488437021989</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1417,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2627452713.160146</v>
+        <v>2563577398.309405</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1443726792111925</v>
+        <v>0.1261067291002846</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03227224613910146</v>
+        <v>0.03577568281081499</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5401660322.759447</v>
+        <v>4470485952.722219</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09909621433224525</v>
+        <v>0.102385031673817</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03546166774498431</v>
+        <v>0.04477348523280265</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>242.1034319133177</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1673007013.808717</v>
+        <v>1769798998.628075</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1236944776279579</v>
+        <v>0.1240375732746125</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02835856686095463</v>
+        <v>0.03595932252158563</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1524,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1096458790.139162</v>
+        <v>905118081.8283197</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08728887145314775</v>
+        <v>0.09282851412199661</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03891127093407584</v>
+        <v>0.04850762150381583</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1888035557.30696</v>
+        <v>1343111717.156247</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09646058494229115</v>
+        <v>0.1208897914840894</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03743092578766243</v>
+        <v>0.02442889802667758</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2700468136.570409</v>
+        <v>2462424897.466428</v>
       </c>
       <c r="F33" t="n">
-        <v>0.141042628115711</v>
+        <v>0.1815452024087204</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05771476443449388</v>
+        <v>0.0427512044254295</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1094471191.960408</v>
+        <v>1328417179.743016</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1214092991324472</v>
+        <v>0.09222719409579674</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02825988747201492</v>
+        <v>0.01723289606334315</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1664,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1361893259.470369</v>
+        <v>983199040.26565</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07927921323670406</v>
+        <v>0.08561685377172394</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04075932662360736</v>
+        <v>0.03262706798290175</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2499661434.070447</v>
+        <v>3224837948.668541</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1808766392857382</v>
+        <v>0.143852337918334</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02257637937825702</v>
+        <v>0.02577811465708931</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2024435113.776109</v>
+        <v>2339779471.119746</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09174582179535683</v>
+        <v>0.1093944106516638</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04069379000919211</v>
+        <v>0.03506936902243178</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1769,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2148447176.365443</v>
+        <v>1739524741.61867</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1102999626779678</v>
+        <v>0.07599649960704921</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03477519293555834</v>
+        <v>0.0359059530229325</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1804,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2127738098.914983</v>
+        <v>1695772885.673283</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1773142207179804</v>
+        <v>0.1351769217204741</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02250870535143852</v>
+        <v>0.02290518561617193</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1579890045.396742</v>
+        <v>1627713399.342023</v>
       </c>
       <c r="F40" t="n">
-        <v>0.106151383284279</v>
+        <v>0.1361662978933881</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0387929370710445</v>
+        <v>0.04950409720543496</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2699382735.790556</v>
+        <v>2893755935.244005</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1294222104138195</v>
+        <v>0.1216194651582458</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03391744375096057</v>
+        <v>0.03119199028778883</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1903,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3088834793.03257</v>
+        <v>3130881101.851841</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08830651244486283</v>
+        <v>0.1261552867534717</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04210615770524147</v>
+        <v>0.02813373001802772</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1944,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2582771958.765175</v>
+        <v>2727126918.73191</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1458880470420205</v>
+        <v>0.1877414360843925</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01589455171048547</v>
+        <v>0.0239955975021557</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1877445513.090384</v>
+        <v>2060986706.608081</v>
       </c>
       <c r="F44" t="n">
-        <v>0.102775376056036</v>
+        <v>0.09428168008582208</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03125614534493728</v>
+        <v>0.02999633628832046</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2014,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1916835636.484948</v>
+        <v>1787805059.547252</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1623557072946348</v>
+        <v>0.1558684750789486</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03939616067882876</v>
+        <v>0.04760070737570692</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2049,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4564320062.91938</v>
+        <v>4401657028.719539</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1209810964505031</v>
+        <v>0.1786857565801647</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05844407078588613</v>
+        <v>0.05567340865601901</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>215.4636165792741</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2086,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4990666468.706791</v>
+        <v>5198323193.651972</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1819439628152019</v>
+        <v>0.1640294762346148</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03790793469096124</v>
+        <v>0.04268499748079663</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2115,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3570111679.462592</v>
+        <v>3016742197.316941</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0777979798232655</v>
+        <v>0.08151924117549787</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02670094796921335</v>
+        <v>0.02519578205994194</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2150,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1990495135.237764</v>
+        <v>1240578555.179394</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1505523800237235</v>
+        <v>0.1559779623007568</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03834262496540265</v>
+        <v>0.04231531944471237</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2191,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4003854859.517627</v>
+        <v>3916348106.258367</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1319778961069487</v>
+        <v>0.1648042307448429</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04398130906149022</v>
+        <v>0.04201271525388876</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2226,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1002688100.451835</v>
+        <v>1308978794.038974</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1421682652275615</v>
+        <v>0.176157246513562</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04399651294544758</v>
+        <v>0.03368712762014478</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2261,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3251406064.738812</v>
+        <v>3758830020.862631</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1353408032370746</v>
+        <v>0.1061485481027543</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06037721722553238</v>
+        <v>0.04474285668722939</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>192.0614609986001</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2292,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2906341575.050302</v>
+        <v>2609793408.376117</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1913960630032213</v>
+        <v>0.1534265058944349</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02277661479036696</v>
+        <v>0.02750866177806969</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2333,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3069882415.951447</v>
+        <v>4224906875.150817</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1120633470760353</v>
+        <v>0.1072560436992486</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05311410084183448</v>
+        <v>0.0389090252162515</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2368,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3561374613.953543</v>
+        <v>4726796631.984583</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1410221937325803</v>
+        <v>0.1796744224358075</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02183031283216973</v>
+        <v>0.02289739707238876</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2403,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1598227757.744641</v>
+        <v>1751492795.553136</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1644315767396717</v>
+        <v>0.1029145459786449</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05445084741057156</v>
+        <v>0.03685504025824182</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2432,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3251829245.085728</v>
+        <v>3424194333.065591</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1374760293678842</v>
+        <v>0.1797274606469838</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02706713410516933</v>
+        <v>0.02410716040278328</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>139.6969202159678</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2469,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1877650776.271905</v>
+        <v>1399363769.974355</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1958681342396286</v>
+        <v>0.1838213602513366</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02470945055208469</v>
+        <v>0.0318865117138231</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2510,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4633893956.458497</v>
+        <v>3623630653.037826</v>
       </c>
       <c r="F59" t="n">
-        <v>0.124196306573568</v>
+        <v>0.1277429337070492</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04624489201396904</v>
+        <v>0.03416260647214309</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>144.8538931992187</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2541,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3027340001.499795</v>
+        <v>2488668084.883914</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1459037447884024</v>
+        <v>0.1842349664426969</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03069024855740533</v>
+        <v>0.0280570669142061</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2576,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2795924124.381662</v>
+        <v>3023185094.404351</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1215814247435332</v>
+        <v>0.1765527966277298</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03056931706531351</v>
+        <v>0.02330145995079543</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2611,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1918633173.243549</v>
+        <v>1770431615.949765</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1564435776600149</v>
+        <v>0.1191953155337295</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03616323481310815</v>
+        <v>0.04455084482133868</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2646,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3928353966.583354</v>
+        <v>3466904108.051989</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07527943564605546</v>
+        <v>0.07760127240130095</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04318521089045557</v>
+        <v>0.04712422568866838</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>139.1972453462674</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2683,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3490985374.394607</v>
+        <v>3662836921.367278</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1319141615457579</v>
+        <v>0.1884691091321971</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03482187914874096</v>
+        <v>0.02692045663903136</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>159.1635973011785</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5906028781.877402</v>
+        <v>4139846010.571554</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1458983235103019</v>
+        <v>0.1225075337095227</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01982534981297793</v>
+        <v>0.02074771087630242</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.7512540206818</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4106321203.071873</v>
+        <v>3852373198.113604</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1107329241184666</v>
+        <v>0.1047640078984164</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03420628325904101</v>
+        <v>0.03625744184940224</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>172.989667191679</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3066804038.356009</v>
+        <v>2122015362.006174</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09563210600367607</v>
+        <v>0.08897241211466043</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04358023879412998</v>
+        <v>0.04596107206534093</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4770164761.487247</v>
+        <v>4203401013.179211</v>
       </c>
       <c r="F68" t="n">
-        <v>0.107207040759794</v>
+        <v>0.1123090357916823</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05104490995655944</v>
+        <v>0.04158167887804532</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>202.2929461485801</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1499295402.406517</v>
+        <v>2041834199.733013</v>
       </c>
       <c r="F69" t="n">
-        <v>0.128396033014173</v>
+        <v>0.1787365193388301</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04538319455817135</v>
+        <v>0.05312774367461776</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3578807529.365267</v>
+        <v>3206604619.657258</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0882587125337557</v>
+        <v>0.06753164026414801</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03174806212640701</v>
+        <v>0.04681412224210751</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2942,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4232145447.007845</v>
+        <v>3471247188.23121</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1256903427756213</v>
+        <v>0.1244070928407777</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03298064373902923</v>
+        <v>0.0323674026974326</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>153.8694541282726</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1644612781.844548</v>
+        <v>2042257208.323061</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07348990928430159</v>
+        <v>0.1015353166347926</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03464353601917911</v>
+        <v>0.04053252927208612</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2241921961.412344</v>
+        <v>2586135983.155534</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1073102228107245</v>
+        <v>0.06844258706641389</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03499408830829407</v>
+        <v>0.0416275426710128</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2748946415.229428</v>
+        <v>3581799418.412574</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1210122604096262</v>
+        <v>0.1446794996273722</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03292507651399051</v>
+        <v>0.0317152512648147</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1943610311.828814</v>
+        <v>2505205073.11731</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1390968533820637</v>
+        <v>0.1617820305911093</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02390234283723894</v>
+        <v>0.02581418607118751</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3119,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4973425812.736168</v>
+        <v>5047832806.494851</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1236852048964771</v>
+        <v>0.1049320887180334</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03409693145884603</v>
+        <v>0.03389241461027829</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>170.8018932503407</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1781355950.514474</v>
+        <v>2235213411.138735</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1819920048561241</v>
+        <v>0.1491563138313186</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02331227560024022</v>
+        <v>0.02493585253274961</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3292924529.701778</v>
+        <v>4350569436.583357</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09954086766494109</v>
+        <v>0.1078482506793618</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0363287347119675</v>
+        <v>0.05422713969121897</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>214.0768590042727</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1874894775.102221</v>
+        <v>1319010385.049725</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1349697767630812</v>
+        <v>0.1116211869867439</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02968878299346796</v>
+        <v>0.03058088779361831</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4241512572.296091</v>
+        <v>5346669707.550763</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09059721667187078</v>
+        <v>0.1052567187397693</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02526814950623153</v>
+        <v>0.02586219958457396</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3298,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3859050826.027772</v>
+        <v>4536654636.104929</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1198988589811944</v>
+        <v>0.1307426764974846</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02452327629703658</v>
+        <v>0.02683832154501716</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4621249288.218299</v>
+        <v>4706769304.505005</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1896103423364057</v>
+        <v>0.1650513277144118</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02951826947404692</v>
+        <v>0.0237108538421483</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>214.5469898927215</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2329965983.738624</v>
+        <v>1747470050.417527</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1182161405001832</v>
+        <v>0.1482862046550825</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02833627240267621</v>
+        <v>0.02896144123849677</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1814445107.726108</v>
+        <v>1774160821.249677</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07308068583992643</v>
+        <v>0.1026328549229307</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03283420028371094</v>
+        <v>0.04846392225533854</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2457650933.912269</v>
+        <v>2261269255.572708</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1116609715496252</v>
+        <v>0.1755768372281427</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03959215420823226</v>
+        <v>0.04793626161421546</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2124236704.4319</v>
+        <v>2783558146.3151</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1415527781652275</v>
+        <v>0.1400474843935884</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01872264563369102</v>
+        <v>0.01856437312879427</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1305464444.182147</v>
+        <v>1011364161.479307</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1302164779023847</v>
+        <v>0.1407279902041029</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03708730542992367</v>
+        <v>0.04066703451965079</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2492449289.118072</v>
+        <v>3432073440.963717</v>
       </c>
       <c r="F88" t="n">
-        <v>0.132685011551782</v>
+        <v>0.1258758629297094</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02533699838297664</v>
+        <v>0.0313084889445519</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3239882988.18333</v>
+        <v>2557781011.847117</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1547487611808766</v>
+        <v>0.1471754806074118</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03758579516084701</v>
+        <v>0.0268912678435273</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1954773015.570661</v>
+        <v>1398305826.525595</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09630655890299411</v>
+        <v>0.08561271485039942</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04341289805229109</v>
+        <v>0.03528657725350835</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3650,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1490419076.945499</v>
+        <v>1959102326.457671</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1573000660270752</v>
+        <v>0.17428424369581</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03734270320320369</v>
+        <v>0.04682999029078769</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2704412262.921674</v>
+        <v>2960459973.791926</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07375196868030726</v>
+        <v>0.08241420349343954</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04118918569407196</v>
+        <v>0.03293865805836355</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4391300925.217496</v>
+        <v>3793468405.475221</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08661916371628817</v>
+        <v>0.08839200125665715</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04888845897390923</v>
+        <v>0.03369275979930463</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>168.2914200329</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1572245825.445189</v>
+        <v>2321407361.935489</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1398376640296929</v>
+        <v>0.1360054123485953</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03239964346376506</v>
+        <v>0.03377611338512682</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2933973072.462803</v>
+        <v>1999375599.064569</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1175666893950145</v>
+        <v>0.1033603088607627</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03328465415027279</v>
+        <v>0.04665024795438089</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1968592764.434619</v>
+        <v>1825552648.937859</v>
       </c>
       <c r="F96" t="n">
-        <v>0.110216568421177</v>
+        <v>0.09165873753251035</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03362484715412602</v>
+        <v>0.04290965232785955</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4857645051.105179</v>
+        <v>4120095012.225041</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1574134343312317</v>
+        <v>0.1769062490211741</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02641335848414648</v>
+        <v>0.02269943946036504</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>209.6167208876998</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3485066008.73185</v>
+        <v>2628005385.384126</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1032586970233728</v>
+        <v>0.08329640761926249</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0220222093499403</v>
+        <v>0.0222855191051547</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2795414812.432716</v>
+        <v>3001171475.025892</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1280446715306198</v>
+        <v>0.1295317392117497</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03513544455435232</v>
+        <v>0.02547048596239156</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2901006965.855376</v>
+        <v>3534667037.28128</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1138926324589557</v>
+        <v>0.1531276969779272</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01948506439792726</v>
+        <v>0.02187440755656934</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>147.3056311650936</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3523473461.993434</v>
+        <v>2250774952.143173</v>
       </c>
       <c r="F101" t="n">
-        <v>0.188054033904314</v>
+        <v>0.2080626940126675</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04396402024730765</v>
+        <v>0.05132961655079237</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
